--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549339.9647236484</v>
+        <v>590949.7132884418</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12426458.88989895</v>
+        <v>12515698.8879799</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6381813.161497338</v>
+        <v>7504991.361261602</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9588764.761935659</v>
+        <v>9033329.151674008</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>165.1725371760942</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>138.3112824111457</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>165.1725371760942</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>65.19363848344992</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
-        <v>18.14576679396739</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>153.8072380324129</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H5" t="n">
-        <v>266.4745132254753</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.3652991436814</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +980,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714241</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>16.42572259800711</v>
       </c>
       <c r="T6" t="n">
-        <v>145.4051839798265</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553087</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845829</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>156.5831467345228</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>85.57506575388496</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="I8" t="n">
-        <v>47.34631134549551</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>138.3112824111459</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>145.0285294090726</v>
       </c>
       <c r="G10" t="n">
-        <v>110.4510076131979</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>201.8731589524258</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.23443023079861</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492424</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>105.3000236223692</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>36.34690181272053</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>126.7498226612777</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>18.26879610204006</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>34.98723076369677</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>339.0189008308752</v>
       </c>
       <c r="D17" t="n">
-        <v>304.4930832847272</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>9.742358773849435</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>97.28002421814141</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>262.2618143196417</v>
       </c>
       <c r="D20" t="n">
-        <v>241.591732288677</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2134,22 +2134,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744764</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>77.57026134932991</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>77.92383158564593</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>240.245153033246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>84.82420463792836</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>124.9598142566936</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>102.6076185830462</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>20.78023945356895</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>58.88743206892199</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>66.124382850137</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>131.05739124507</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>124.9598142566936</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951288</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>91.44536683725565</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>131.0573912450696</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>81.72898226868531</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>77.31354443380461</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>183.1642512458443</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>60.46288169317431</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.1096626559152</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>79.03187764303603</v>
+        <v>199.732594687538</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>154.0333841973918</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>18.26879610204004</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>68.90171938503894</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>297.8304163214468</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>60.95204631385874</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>132.1046575254838</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>61.29257748217055</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>179.0497556307041</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>30.77353657221289</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.41948680756566</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="C2" t="n">
-        <v>820.230080101654</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="D2" t="n">
-        <v>820.230080101654</v>
+        <v>560.682563648794</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344762</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>181.842993615825</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791767</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004805</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267548</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560895</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>915.14715393416</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T3" t="n">
-        <v>718.3380755655976</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U3" t="n">
-        <v>718.3380755655976</v>
+        <v>560.682563648794</v>
       </c>
       <c r="V3" t="n">
-        <v>483.1859673338549</v>
+        <v>371.2627786323095</v>
       </c>
       <c r="W3" t="n">
-        <v>228.9486106056533</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>375.6572481379019</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>375.6572481379019</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>375.6572481379019</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>227.7441545555088</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>80.85420705759842</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>80.85420705759842</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>448.2056470819948</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>471.6341805242508</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R4" t="n">
-        <v>1036.526462638381</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="S4" t="n">
-        <v>1036.526462638381</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="T4" t="n">
-        <v>1036.526462638381</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="U4" t="n">
-        <v>770.1488060712026</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="V4" t="n">
-        <v>515.4643178653157</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="W4" t="n">
-        <v>249.0866612981378</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="X4" t="n">
-        <v>21.09711040012049</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09711040012049</v>
+        <v>557.3057129681416</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1425.551839658727</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="C5" t="n">
-        <v>1056.589322718315</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D5" t="n">
-        <v>698.3236241115649</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E5" t="n">
-        <v>312.5353715133206</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="F5" t="n">
-        <v>312.5353715133206</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G5" t="n">
-        <v>312.5353715133206</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058916</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>191.874309407918</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644748</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>509.495204112382</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020255</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>738.6222485201458</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>738.6222485201458</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>738.6222485201458</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904653</v>
+        <v>738.6222485201458</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904653</v>
+        <v>738.6222485201458</v>
       </c>
       <c r="W5" t="n">
-        <v>1815.691171634539</v>
+        <v>738.6222485201458</v>
       </c>
       <c r="X5" t="n">
-        <v>1815.691171634539</v>
+        <v>738.6222485201458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1425.551839658727</v>
+        <v>549.2024635036613</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809.4046422439259</v>
+        <v>348.6925312598881</v>
       </c>
       <c r="C6" t="n">
-        <v>634.9516129627989</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D6" t="n">
-        <v>486.0172033015477</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E6" t="n">
-        <v>326.7797482960922</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F6" t="n">
-        <v>180.2451903229772</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330519</v>
       </c>
       <c r="K6" t="n">
-        <v>508.4654164929048</v>
+        <v>67.13418877024165</v>
       </c>
       <c r="L6" t="n">
-        <v>892.7144661368402</v>
+        <v>183.5548280772643</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.621361605349</v>
+        <v>338.7690911140237</v>
       </c>
       <c r="N6" t="n">
-        <v>1555.403885599981</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O6" t="n">
-        <v>1846.763131854547</v>
+        <v>649.2101578476338</v>
       </c>
       <c r="P6" t="n">
-        <v>2061.271547415447</v>
+        <v>739.5989987017051</v>
       </c>
       <c r="Q6" t="n">
-        <v>2154.745546059887</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904653</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="S6" t="n">
-        <v>2029.495166406371</v>
+        <v>706.3276532964406</v>
       </c>
       <c r="T6" t="n">
-        <v>1882.621243194425</v>
+        <v>516.9078682799561</v>
       </c>
       <c r="U6" t="n">
-        <v>1882.621243194425</v>
+        <v>516.9078682799561</v>
       </c>
       <c r="V6" t="n">
-        <v>1647.469134962682</v>
+        <v>516.9078682799561</v>
       </c>
       <c r="W6" t="n">
-        <v>1393.231778234481</v>
+        <v>516.9078682799561</v>
       </c>
       <c r="X6" t="n">
-        <v>1185.380278028948</v>
+        <v>516.9078682799561</v>
       </c>
       <c r="Y6" t="n">
-        <v>977.6199792639939</v>
+        <v>516.9078682799561</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.36919653809306</v>
+        <v>336.7022429029141</v>
       </c>
       <c r="C7" t="n">
-        <v>43.36919653809306</v>
+        <v>336.7022429029141</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809306</v>
+        <v>186.5856034905784</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="J7" t="n">
-        <v>58.6963092017423</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246705</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728883</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640786</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152952</v>
+        <v>634.3723839608008</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846263</v>
       </c>
       <c r="R7" t="n">
-        <v>1486.355378693647</v>
+        <v>612.5614882768582</v>
       </c>
       <c r="S7" t="n">
-        <v>1328.190584012311</v>
+        <v>612.5614882768582</v>
       </c>
       <c r="T7" t="n">
-        <v>1104.586726704934</v>
+        <v>612.5614882768582</v>
       </c>
       <c r="U7" t="n">
-        <v>815.4604056789578</v>
+        <v>526.1220279193986</v>
       </c>
       <c r="V7" t="n">
-        <v>560.775917473071</v>
+        <v>336.7022429029141</v>
       </c>
       <c r="W7" t="n">
-        <v>271.3587474361104</v>
+        <v>336.7022429029141</v>
       </c>
       <c r="X7" t="n">
-        <v>43.36919653809306</v>
+        <v>336.7022429029141</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.36919653809306</v>
+        <v>336.7022429029141</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254.111199477247</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C8" t="n">
-        <v>1254.111199477247</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D8" t="n">
-        <v>895.8455008704968</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E8" t="n">
-        <v>510.0572482722526</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F8" t="n">
-        <v>99.07134348264503</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G8" t="n">
-        <v>99.07134348264503</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="H8" t="n">
-        <v>99.07134348264503</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.250531453059</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y8" t="n">
-        <v>1254.111199477247</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>915.14715393416</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>718.3380755655976</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>718.3380755655976</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>483.1859673338549</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.6395913505859</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C10" t="n">
-        <v>309.703408422679</v>
+        <v>619.5416805109397</v>
       </c>
       <c r="D10" t="n">
-        <v>309.703408422679</v>
+        <v>469.425041098604</v>
       </c>
       <c r="E10" t="n">
-        <v>309.703408422679</v>
+        <v>321.5119475162109</v>
       </c>
       <c r="F10" t="n">
-        <v>162.8134609247686</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.838891429094</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W10" t="n">
-        <v>927.4217213921333</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X10" t="n">
-        <v>699.432170494116</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.6395913505859</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>1091.323932370578</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>722.3614154301667</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.278283189674</v>
+        <v>1868.063104410512</v>
       </c>
       <c r="Y11" t="n">
-        <v>2005.586939522201</v>
+        <v>1477.9237724347</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368017</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621301</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251695</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271522</v>
+        <v>765.9597473161994</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836221</v>
+        <v>545.1671681726692</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796261</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392144</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324639</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218342</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
@@ -5314,16 +5314,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>231.8553933260938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>231.8553933260938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>231.8553933260938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>231.8553933260938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>84.96544582818348</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218342</v>
@@ -5436,16 +5436,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,10 +5457,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
         <v>1735.608663915319</v>
@@ -5469,19 +5469,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1569.10175931188</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C17" t="n">
-        <v>1200.139242371469</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
         <v>892.5704713767946</v>
@@ -5506,61 +5506,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W17" t="n">
-        <v>2719.306689612893</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X17" t="n">
-        <v>2345.840931351814</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y17" t="n">
-        <v>1955.701599376002</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
         <v>765.1517452158134</v>
@@ -5612,34 +5612,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>521.2725633630544</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1829.031897363097</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1829.031897363097</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1539.929030488741</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1539.929030488741</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>1250.51186045178</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.51186045178</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.71928130825</v>
+        <v>521.2725633630544</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1891.353293732296</v>
+        <v>1901.535346136983</v>
       </c>
       <c r="C20" t="n">
-        <v>1522.390776791884</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
         <v>1278.358723975039</v>
@@ -5743,25 +5743,25 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5773,31 +5773,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796418</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.953133796418</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="Y20" t="n">
-        <v>2277.953133796418</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>986.3598813409312</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>696.9427113039706</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X22" t="n">
-        <v>468.9531604059532</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y22" t="n">
-        <v>248.1605812624231</v>
+        <v>565.9800573000399</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1179.52858457759</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C23" t="n">
-        <v>810.5660676371781</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D23" t="n">
-        <v>452.3003690304276</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E23" t="n">
-        <v>66.51211643218343</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6010,31 +6010,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>1566.128424641711</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>339.6240985328146</v>
+        <v>471.2459535582122</v>
       </c>
       <c r="C25" t="n">
-        <v>339.6240985328146</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="D25" t="n">
-        <v>339.6240985328146</v>
+        <v>152.1931312179696</v>
       </c>
       <c r="E25" t="n">
-        <v>339.6240985328146</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>192.7341510349043</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W25" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X25" t="n">
-        <v>742.0651425065845</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y25" t="n">
-        <v>521.2725633630544</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1590.514489367197</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.551972426786</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E26" t="n">
         <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>2367.25366140713</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1977.114329431319</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>760.6631235951729</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>591.726940667266</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>441.6103012549303</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>293.6972076725372</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>293.6972076725372</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>125.9943710472561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>125.9943710472561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1645.778206672847</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>1391.09371846696</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>1391.09371846696</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>1163.104167568943</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>942.3115884254127</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1252.833343223196</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C29" t="n">
-        <v>883.8708262827843</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D29" t="n">
-        <v>817.078520373555</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E29" t="n">
-        <v>817.078520373555</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0926155839475</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X29" t="n">
-        <v>2029.572515263129</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y29" t="n">
-        <v>1639.433183287318</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>339.6240985328146</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C31" t="n">
-        <v>339.6240985328146</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>339.6240985328146</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>339.6240985328146</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>192.7341510349043</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6660,13 +6660,13 @@
         <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>970.0546934046018</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>742.0651425065845</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>521.2725633630544</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1519.135572818019</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C32" t="n">
-        <v>1519.135572818019</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D32" t="n">
-        <v>1160.869874211268</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E32" t="n">
-        <v>775.0816216130238</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6709,7 +6709,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3233.236764197801</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3233.236764197801</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>2979.706287471637</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2648.643400128066</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2295.874744857952</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>2295.874744857952</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>1905.73541288214</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6837,25 +6837,25 @@
         <v>463.6594280995014</v>
       </c>
       <c r="C34" t="n">
-        <v>294.7232451715945</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D34" t="n">
-        <v>144.6066057592588</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E34" t="n">
-        <v>144.6066057592588</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>144.6066057592588</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1250.836169983545</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.836169983545</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y35" t="n">
-        <v>1637.436010047667</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>994.2880032601528</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1638.191681214136</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.774511177176</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>1348.774511177176</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1175.936468090393</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1712.341567565139</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C38" t="n">
-        <v>1343.379050624727</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D38" t="n">
-        <v>985.1133520179767</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E38" t="n">
-        <v>599.3250994197324</v>
+        <v>268.2622120761612</v>
       </c>
       <c r="F38" t="n">
-        <v>188.3391946301248</v>
+        <v>268.2622120761612</v>
       </c>
       <c r="G38" t="n">
-        <v>188.3391946301248</v>
+        <v>268.2622120761612</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7210,16 +7210,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W38" t="n">
-        <v>2862.546497866152</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X38" t="n">
-        <v>2489.080739605072</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y38" t="n">
-        <v>2098.941407629261</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.8553933260938</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C40" t="n">
-        <v>231.8553933260938</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D40" t="n">
-        <v>231.8553933260938</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E40" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>84.96544582818348</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6479724696239</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.8553933260938</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1295.236214140706</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>1295.236214140706</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>936.9705155339554</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>551.1822629357112</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>551.1822629357112</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G41" t="n">
-        <v>136.1098127807076</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7411,7 +7411,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X41" t="n">
-        <v>2071.975386180639</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y41" t="n">
-        <v>1681.836054204828</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7496,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>679.1346335501037</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>128.0798399815357</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218342</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1512.339158667308</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1223.236291792951</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>968.5518035870643</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>679.1346335501037</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>679.1346335501037</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y43" t="n">
-        <v>679.1346335501037</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1698.50962791956</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C44" t="n">
-        <v>1329.547110979148</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>971.2814123723974</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>585.4931597741531</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
         <v>523.5814653477182</v>
@@ -7648,19 +7648,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1698.50962791956</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.3151575124869</v>
+        <v>560.1023745137405</v>
       </c>
       <c r="C46" t="n">
-        <v>361.3151575124869</v>
+        <v>560.1023745137405</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218342</v>
@@ -7839,19 +7839,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.3151575124869</v>
+        <v>741.7508393439803</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069106</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8145,10 +8145,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>154.1946371899305</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>127.9776909938868</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8376,19 +8376,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>74.60115408961708</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>132.993706265681</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543633</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707557</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>247.9252960539638</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
-        <v>8.838653001053075</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>45.27499998310563</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>86.52244598482537</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>88.24003234836965</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>109.3588360896966</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117139</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577515</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>228.9266036310677</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H5" t="n">
-        <v>37.85229153070776</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="6">
@@ -22868,22 +22868,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046393</v>
+        <v>48.77881175550659</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.3445220929425</v>
       </c>
       <c r="T6" t="n">
-        <v>47.35803433093722</v>
+        <v>7.884010625681611</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22947,22 +22947,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>40.60454402509308</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>200.6900157395653</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>64.61205615750836</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>81.9144471239415</v>
       </c>
       <c r="I8" t="n">
-        <v>18.36360132697496</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>8.838653001052847</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,25 +23184,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.3925186138586128</v>
       </c>
       <c r="G10" t="n">
-        <v>55.85559243160631</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>167.8579417260433</v>
       </c>
       <c r="Y11" t="n">
-        <v>341.0035084252549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270131</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>120.4096317666679</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>346.38693985076</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>255.1805474109841</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>147.7570121569882</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>251.5357675728942</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26.25399094013238</v>
       </c>
       <c r="D17" t="n">
-        <v>50.18995833595574</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>157.5044623247784</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,22 +23940,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>92.48900111330049</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>103.0110774513658</v>
       </c>
       <c r="D20" t="n">
-        <v>113.091309332006</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696548</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>141.0143920027649</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>304.0065384866159</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.9927856228076</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>61.60975800864081</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>41.06599400233461</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>280.1262230804343</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>348.9508612249001</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>37.4649883409161</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>288.5586587705459</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>279.8643344083835</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>41.06599400233458</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>17.74239495092019</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>255.180547410984</v>
       </c>
     </row>
     <row r="33">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>64.70498037788386</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>67.44147048051617</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>67.83092071305768</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7750569628793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.47499069617959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>215.5758867442844</v>
+        <v>94.87516969978242</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>25.79859598454553</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>147.7570121569882</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>225.7060450022815</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>71.90068435702227</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>85.48191633271043</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>87.44429175068535</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>345.5834682595409</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>190.6813450477649</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>117.8419364459995</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>128.1651665445291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>532640.5770708442</v>
+        <v>469902.7171790035</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>728034.344196957</v>
+        <v>469902.7171790038</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>797085.5717721586</v>
+        <v>532640.5770708444</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878081.8178860204</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878081.8178860206</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878081.8178860204</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878081.8178860203</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878081.8178860206</v>
+        <v>878081.8178860205</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878081.8178860205</v>
+        <v>878081.8178860204</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>171419.5356187815</v>
+      </c>
+      <c r="C2" t="n">
+        <v>171419.5356187815</v>
+      </c>
+      <c r="D2" t="n">
         <v>193768.2521372568</v>
       </c>
-      <c r="C2" t="n">
-        <v>265569.8802231801</v>
-      </c>
-      <c r="D2" t="n">
-        <v>290673.0489695932</v>
-      </c>
       <c r="E2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="F2" t="n">
         <v>323947.2440223746</v>
-      </c>
-      <c r="F2" t="n">
-        <v>323947.2440223744</v>
       </c>
       <c r="G2" t="n">
         <v>323947.2440223746</v>
       </c>
       <c r="H2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="I2" t="n">
         <v>323947.2440223746</v>
       </c>
-      <c r="I2" t="n">
-        <v>323947.2440223743</v>
-      </c>
       <c r="J2" t="n">
-        <v>323947.2440223747</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="L2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="O2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911927</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>308174.1417414036</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596107</v>
+        <v>79834.34398878386</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>551695.2512473336</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911398</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>71651.52831447155</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824953</v>
+        <v>19282.57122195016</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341503</v>
+        <v>141470.0145401776</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>9939.208351946796</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9939.208351946794</v>
+      </c>
+      <c r="D4" t="n">
         <v>12754.47490881741</v>
       </c>
-      <c r="C4" t="n">
-        <v>15634.16823746788</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17379.72927547096</v>
-      </c>
       <c r="E4" t="n">
-        <v>9160.459137079155</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="F4" t="n">
-        <v>9160.459137079168</v>
+        <v>9160.459137079182</v>
       </c>
       <c r="G4" t="n">
         <v>9160.459137079168</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161354</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56985.80041161355</v>
+      </c>
+      <c r="D5" t="n">
         <v>63047.80320426619</v>
       </c>
-      <c r="C5" t="n">
-        <v>85199.08185587224</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.7724398447</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,19 +26487,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-572449.7217537711</v>
+        <v>-488012.7720080804</v>
       </c>
       <c r="C6" t="n">
-        <v>-149986.1937411613</v>
+        <v>103344.1305127646</v>
       </c>
       <c r="D6" t="n">
-        <v>75723.90168642481</v>
+        <v>37098.85851671417</v>
       </c>
       <c r="E6" t="n">
-        <v>54931.27520865031</v>
+        <v>-311562.4258532378</v>
       </c>
       <c r="F6" t="n">
-        <v>237004.2550258411</v>
+        <v>240132.8253940961</v>
       </c>
       <c r="G6" t="n">
-        <v>237004.255025841</v>
+        <v>240132.8253940958</v>
       </c>
       <c r="H6" t="n">
-        <v>237004.2550258409</v>
+        <v>240132.8253940958</v>
       </c>
       <c r="I6" t="n">
-        <v>237004.255025841</v>
+        <v>240132.825394096</v>
       </c>
       <c r="J6" t="n">
-        <v>168005.1006067272</v>
+        <v>191067.8806655513</v>
       </c>
       <c r="K6" t="n">
-        <v>165352.7267113694</v>
+        <v>240132.8253940959</v>
       </c>
       <c r="L6" t="n">
-        <v>212082.4157975912</v>
+        <v>220850.2541721456</v>
       </c>
       <c r="M6" t="n">
-        <v>189451.989232426</v>
+        <v>98662.81085391834</v>
       </c>
       <c r="N6" t="n">
-        <v>237004.2550258409</v>
+        <v>240132.8253940959</v>
       </c>
       <c r="O6" t="n">
-        <v>237004.255025841</v>
+        <v>240132.8253940959</v>
       </c>
       <c r="P6" t="n">
-        <v>237004.255025841</v>
+        <v>240132.8253940959</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663196</v>
+      </c>
+      <c r="C4" t="n">
+        <v>187.5255871663196</v>
+      </c>
+      <c r="D4" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C4" t="n">
-        <v>542.1149567261632</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>239.6556507682061</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985521</v>
+        <v>65.5850728565739</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>475.7216868238201</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387554</v>
+        <v>76.1882928351865</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022541</v>
+        <v>567.6875754007865</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015058</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387554</v>
+        <v>76.18829283518639</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022545</v>
+        <v>567.6875754007865</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387554</v>
+        <v>76.1882928351865</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>567.6875754007865</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32806,10 +32806,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>170.306020310542</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1432842295773</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L6" t="n">
-        <v>388.1303531756924</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R6" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231598</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971897</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900911</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212425</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735793</v>
+        <v>75.94151139701755</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748827</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750462</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
